--- a/面试日程.xlsx
+++ b/面试日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songzhixin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E555981-62B1-5D4B-8433-CAED6D801406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D354F73-A6E5-A94F-8BB0-E5ED4D9FB714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>金蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,18 +56,6 @@
   </si>
   <si>
     <t>bilibili</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安居客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【58同城】您有一个视频面试将在2022-02-23 19:00开始，链接：https://meeting.58.com/meeting/r62209809084369920 。请提前做好网络准备和设备调试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版趣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,10 +77,6 @@
   </si>
   <si>
     <t>平安产险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://v.hina.com/interview/simple/interviewee/2/csechy0dqz3znl3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,23 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>便利蜂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Elva 邀请您参加腾讯会议 
-会议主题：面试-java-宋之鑫 
-会议时间：2022/02/24 20:00-21:00 (GMT+08:00) 中国标准时间 - 北京 
-点击链接入会，或添加至会议列表： 
-https://meeting.tencent.com/dm/lHmnlRFwsID8 
-#腾讯会议：159-202-139 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +249,6 @@
   </si>
   <si>
     <t>OPPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,6 +283,124 @@
   </si>
   <si>
     <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震友科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宇无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PingPAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilibli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://meeting.tencent.com/dm/RPVFLjnszYBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场一次性走完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行信用卡中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击链接入会，或添加至会议列表：
+https://meeting.tencent.com/dm/Y9tQiGT6Nc77
+#腾讯会议：245-106-239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nowcoder.feishu.cn/hire/bridge/video/interviewee/76a6665f-ea6f-4b9c-ab7b-bc991c00a349​</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联易融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿辅导二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信金科二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,9 +508,6 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,16 +526,31 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,63 +868,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EF6D1-E509-674C-95CC-4711844FBA8D}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1">
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:6" s="6" customFormat="1">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>0.47916666666666669</v>
@@ -846,422 +940,714 @@
     <row r="6" spans="1:6">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:6" s="6" customFormat="1">
+      <c r="A7" s="6">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1">
+      <c r="A8" s="6">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1">
+      <c r="A9" s="6">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="6">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="6">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A14" s="6">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="6">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1">
+      <c r="A17" s="6">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1">
+      <c r="A18" s="6">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1">
+      <c r="A20" s="6">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C20" s="10">
         <v>0.375</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1">
+      <c r="A21" s="6">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1">
-      <c r="A8" s="7">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1">
+      <c r="A31" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1">
-      <c r="A9" s="7">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="7">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="7">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1">
-      <c r="A14" s="7">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="7">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" s="7" customFormat="1">
-      <c r="A17" s="7">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1">
-      <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="6">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" customHeight="1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="6">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1">
-      <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1">
-      <c r="B32" s="6"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="34" spans="1:5" ht="18" customHeight="1">
+      <c r="B34" s="5"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
         <v>25</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="6"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="22">
+      <c r="A44">
         <v>28</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>27</v>
+      <c r="E44" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>28</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
+      <c r="B48" s="5"/>
       <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="5"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="5"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" xr:uid="{9CA2BD3C-3B70-8E41-8F64-83FA20C8FF79}"/>
+    <hyperlink ref="E31" r:id="rId1" xr:uid="{7FFA8C04-474D-C243-AEFB-18FD13A5339F}"/>
+    <hyperlink ref="E53" r:id="rId2" xr:uid="{6EB08577-F535-6746-BB83-D26000CFDAC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/面试日程.xlsx
+++ b/面试日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songzhixin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D354F73-A6E5-A94F-8BB0-E5ED4D9FB714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E205DD4-558B-564C-89E1-64637B0BD7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>金蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>震友科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3月1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +397,62 @@
   </si>
   <si>
     <t>hense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿辅导三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bsurl.cn/ICYMdDEw0nmn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,18 +578,9 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -550,8 +593,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EF6D1-E509-674C-95CC-4711844FBA8D}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1025,7 +1077,7 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1046,7 +1098,7 @@
       <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1238,13 +1290,13 @@
       <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>0.41666666666666669</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1259,10 +1311,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
@@ -1275,10 +1327,10 @@
       <c r="C32" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1292,10 +1344,10 @@
       <c r="C33" s="10">
         <v>0.8125</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1303,48 +1355,48 @@
       <c r="B34" s="5"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+    <row r="35" spans="1:5" s="6" customFormat="1">
+      <c r="A35" s="6">
         <v>25</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17">
-      <c r="A36">
+    <row r="36" spans="1:5" s="6" customFormat="1" ht="17">
+      <c r="A36" s="6">
         <v>25</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+    <row r="37" spans="1:5" s="6" customFormat="1">
+      <c r="A37" s="6">
         <v>25</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="10">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1353,97 +1405,92 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
+    <row r="39" spans="1:5" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="A39" s="6">
         <v>26</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" s="6" customFormat="1">
+      <c r="A41" s="6">
+        <v>27</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1">
-      <c r="A40">
-        <v>26</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="5"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="D41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" s="6" customFormat="1">
+      <c r="A42" s="6">
         <v>27</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="1"/>
+      <c r="C42" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="22">
-      <c r="A44">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" s="6" customFormat="1">
+      <c r="A44" s="6">
         <v>28</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" ht="22">
+      <c r="A45" s="6">
+        <v>28</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E45" s="18" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>28</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1454,10 +1501,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1480,174 +1530,294 @@
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="5"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>56</v>
+      <c r="E50" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C51" s="1">
         <v>0.75</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="B52" s="5"/>
-      <c r="D52" s="1"/>
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="C54" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>44</v>
+      <c r="C55" s="1">
+        <v>0.45833333333333331</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.66666666666666663</v>
+        <v>42</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.41666666666666669</v>
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="5" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" s="6" customFormat="1">
+      <c r="B65" s="7"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C66" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="1"/>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="19">
+        <v>0.8125</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="C70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E31" r:id="rId1" xr:uid="{7FFA8C04-474D-C243-AEFB-18FD13A5339F}"/>
-    <hyperlink ref="E53" r:id="rId2" xr:uid="{6EB08577-F535-6746-BB83-D26000CFDAC1}"/>
+    <hyperlink ref="E55" r:id="rId2" xr:uid="{6EB08577-F535-6746-BB83-D26000CFDAC1}"/>
+    <hyperlink ref="E54" r:id="rId3" xr:uid="{178FD8C2-70D8-A848-B3C2-34B27CCFEC7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/面试日程.xlsx
+++ b/面试日程.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songzhixin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songzhixin/Desktop/StudyDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E205DD4-558B-564C-89E1-64637B0BD7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E3735-4BB2-EE40-983F-537AA67683F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>金蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺丰三面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +449,30 @@
   </si>
   <si>
     <t>电话面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行信用卡中心三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质初创公司，原始豌豆荚团队，目前主要做海外业务，主要是内容娱乐产品，优势是内容分发，搜索等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,9 +604,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -604,6 +621,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,16 +940,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EF6D1-E509-674C-95CC-4711844FBA8D}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="100" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1290,7 +1310,7 @@
       <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1313,7 +1333,7 @@
       <c r="D31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1334,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="6">
         <v>24</v>
       </c>
@@ -1351,25 +1371,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="B34" s="5"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" s="6" customFormat="1">
+    <row r="35" spans="1:6" s="6" customFormat="1">
       <c r="A35" s="6">
         <v>25</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="6" customFormat="1" ht="17">
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="17">
       <c r="A36" s="6">
         <v>25</v>
       </c>
@@ -1386,7 +1406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="6" customFormat="1">
+    <row r="37" spans="1:6" s="6" customFormat="1">
       <c r="A37" s="6">
         <v>25</v>
       </c>
@@ -1400,12 +1420,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="6">
         <v>26</v>
       </c>
@@ -1418,17 +1438,17 @@
       <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" s="6" customFormat="1">
+    <row r="41" spans="1:6" s="6" customFormat="1">
       <c r="A41" s="6">
         <v>27</v>
       </c>
@@ -1443,7 +1463,7 @@
       </c>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" s="6" customFormat="1">
+    <row r="42" spans="1:6" s="6" customFormat="1">
       <c r="A42" s="6">
         <v>27</v>
       </c>
@@ -1457,12 +1477,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:5" s="6" customFormat="1">
+    <row r="44" spans="1:6" s="6" customFormat="1">
       <c r="A44" s="6">
         <v>28</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="6" customFormat="1" ht="22">
+    <row r="45" spans="1:6" s="6" customFormat="1" ht="22">
       <c r="A45" s="6">
         <v>28</v>
       </c>
@@ -1489,197 +1509,203 @@
       <c r="D45" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
+    <row r="46" spans="1:6" s="6" customFormat="1">
+      <c r="A46" s="6">
         <v>28</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="F46" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="6" customFormat="1">
+      <c r="A47" s="6">
         <v>28</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" s="6" customFormat="1">
+      <c r="A49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="10">
         <v>0.4375</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" s="6" customFormat="1">
+      <c r="A50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="10">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" s="6" customFormat="1">
+      <c r="A51" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="C51" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1">
+      <c r="A52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
+      <c r="C52" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="5"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" s="6" customFormat="1">
+      <c r="A54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="10">
         <v>0.375</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" s="6" customFormat="1">
+      <c r="A55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" s="6" customFormat="1">
+      <c r="A56" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" s="6" customFormat="1">
+      <c r="A57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" s="6" customFormat="1">
+      <c r="A58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1688,48 +1714,51 @@
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" s="6" customFormat="1">
+      <c r="A60" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" s="6" customFormat="1">
+      <c r="A61" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="E61" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="6" customFormat="1">
+      <c r="A62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1744,19 +1773,28 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" t="s">
         <v>77</v>
-      </c>
-      <c r="E63" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:5" s="6" customFormat="1">
-      <c r="B65" s="7"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -1766,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="C66" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
@@ -1782,35 +1820,129 @@
       <c r="B67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="19">
-        <v>0.8125</v>
+      <c r="C67" s="1">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="18">
+        <v>0.8125</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="5"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" s="5"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C74" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E76" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="C70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/面试日程.xlsx
+++ b/面试日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songzhixin/Desktop/StudyDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E3735-4BB2-EE40-983F-537AA67683F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44BC4C-B3AE-0B4D-B96D-5AFCE46EE866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
   <si>
     <t>金蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猿辅导二面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +465,94 @@
   </si>
   <si>
     <t>优质初创公司，原始豌豆荚团队，目前主要做海外业务，主要是内容娱乐产品，优势是内容分发，搜索等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz面试官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途3面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月11号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服 HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信金科性格测试/薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行信用卡中心测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服性格测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途HR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +607,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,12 +617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,9 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -622,7 +693,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EF6D1-E509-674C-95CC-4711844FBA8D}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1310,11 +1381,11 @@
       <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>25</v>
@@ -1333,7 +1404,7 @@
       <c r="D31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1348,7 +1419,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>2</v>
@@ -1382,7 +1453,7 @@
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -1438,7 +1509,7 @@
       <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1474,7 +1545,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1493,7 +1564,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" ht="22">
@@ -1509,7 +1580,7 @@
       <c r="D45" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1530,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="6" customFormat="1">
@@ -1566,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="6" customFormat="1">
@@ -1614,7 +1685,7 @@
         <v>0.875</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>25</v>
@@ -1635,10 +1706,10 @@
         <v>0.375</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1">
@@ -1654,7 +1725,7 @@
       <c r="D55" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1686,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>2</v>
@@ -1699,11 +1770,11 @@
       <c r="B58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="12">
         <v>0.79166666666666663</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>2</v>
@@ -1722,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1">
@@ -1742,7 +1813,7 @@
         <v>46</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1">
@@ -1756,192 +1827,552 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" s="6" customFormat="1">
+      <c r="A63" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" t="s">
-        <v>77</v>
+      <c r="D63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" s="6" customFormat="1">
+      <c r="A65" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="10">
         <v>0.375</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" s="6" customFormat="1">
+      <c r="A66" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="6" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="6" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="6" customFormat="1">
+      <c r="B70" s="7"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="5"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" s="6" customFormat="1">
+      <c r="A72" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="6" customFormat="1">
+      <c r="A73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="6" customFormat="1">
+      <c r="A74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="6" customFormat="1">
+      <c r="A75" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" s="5"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" s="6" customFormat="1">
+      <c r="A77" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" s="5"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" s="6" customFormat="1">
+      <c r="A79" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="B79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="6" customFormat="1">
+      <c r="A80" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1">
+      <c r="A81" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="6" customFormat="1">
+      <c r="A82" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" s="5"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" s="5"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1">
+      <c r="A85" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1">
+      <c r="A86" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="10">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1">
+      <c r="A88" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1">
+      <c r="A89" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="10">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
+      <c r="A90" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1">
+      <c r="A92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C96" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="D97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="18">
-        <v>0.8125</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" s="5"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="C98" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="18">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="C100" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C101" s="1">
         <v>0.625</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" s="5"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="5" t="s">
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="12"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>61</v>
+      <c r="C103" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1952,5 +2383,6 @@
     <hyperlink ref="E54" r:id="rId3" xr:uid="{178FD8C2-70D8-A848-B3C2-34B27CCFEC7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/面试日程.xlsx
+++ b/面试日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songzhixin/Desktop/StudyDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44BC4C-B3AE-0B4D-B96D-5AFCE46EE866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E0BF12-D323-C64D-8531-29E595BA1727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{280833B1-BABF-8C4E-8521-812603A2D477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="107">
   <si>
     <t>金蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3月14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,6 +549,22 @@
   </si>
   <si>
     <t>富途HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianyirong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +619,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +713,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2EF6D1-E509-674C-95CC-4711844FBA8D}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2218,88 +2242,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" s="6" customFormat="1">
+      <c r="A93" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
+      <c r="E93" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="6" customFormat="1">
+      <c r="A94" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
+      <c r="E94" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1">
+      <c r="A96" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
+      <c r="E96" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="6" customFormat="1">
+      <c r="A97" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E97" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
+      <c r="E97" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="6" customFormat="1">
+      <c r="A98" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2307,71 +2331,91 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" s="6" customFormat="1">
+      <c r="A100" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="103" spans="1:5" s="6" customFormat="1">
+      <c r="A103" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="6" customFormat="1">
+      <c r="A104" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1">
+      <c r="E104" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="19" customFormat="1">
+      <c r="A106" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="19" customFormat="1">
+      <c r="A108" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="20">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D101" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D104" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D108" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>2</v>
       </c>
     </row>
